--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofan03/Documents/ks/api_auto_test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746BA584-67E3-1C42-A42D-69AE2BF07F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF24CFB7-8484-6946-9752-311B9E217858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="-25500" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>2016-10-10</t>
   </si>
@@ -59,13 +59,17 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +79,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -103,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -112,6 +124,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -478,6 +493,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofan03/Documents/ks/api_auto_test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF24CFB7-8484-6946-9752-311B9E217858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B45BF-61CE-3F4F-9A6B-710760E6BD05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="-25500" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>2016-10-10</t>
   </si>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>2018</t>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -406,7 +402,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -494,9 +490,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofan03/Documents/ks/api_auto_test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B45BF-61CE-3F4F-9A6B-710760E6BD05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E932DC8-8023-7C4C-A3AF-263DF3482557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="-25500" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>2016-10-10</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,7 +414,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -490,7 +502,15 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofan03/Documents/ks/api_auto_test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E932DC8-8023-7C4C-A3AF-263DF3482557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B4E9B-517B-9343-9772-5FBD7ED7A74B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="-25500" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>2016-10-10</t>
   </si>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -512,6 +516,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofan03/Documents/ks/api_auto_test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B4E9B-517B-9343-9772-5FBD7ED7A74B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14338B-9CEF-D944-B43C-4055DF636B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="-25500" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>2016-10-10</t>
   </si>
@@ -59,22 +59,6 @@
   </si>
   <si>
     <t>2018</t>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,7 +402,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C9" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -506,26 +490,12 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofan03/Documents/ks/api_auto_test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14338B-9CEF-D944-B43C-4055DF636B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87377F44-EE2D-2A4F-AB25-1D639EF82C32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="-25500" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A8:C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofan03/Documents/ks/api_auto_test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87377F44-EE2D-2A4F-AB25-1D639EF82C32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691748DC-D8DB-2A45-A039-F2AE98443564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="-25500" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>2016-10-10</t>
   </si>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,7 +406,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -492,7 +496,9 @@
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="3"/>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofan03/Documents/ks/api_auto_test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691748DC-D8DB-2A45-A039-F2AE98443564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D879EF83-375C-F349-AECC-FBE07BDAEA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="-25500" windowWidth="28800" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>2016-10-10</t>
   </si>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -501,7 +501,15 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
